--- a/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T11:47:09+00:00</t>
+    <t>2024-09-10T12:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:02:36+00:00</t>
+    <t>2024-09-10T12:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.6</t>
+    <t>0.9.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:10:45+00:00</t>
+    <t>2024-09-11T05:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T05:52:58+00:00</t>
+    <t>2024-09-11T06:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-patient-extension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.7</t>
+    <t>0.9.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T06:02:16+00:00</t>
+    <t>2024-11-07T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -325,7 +325,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-doc-Trustframework-Patient)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-domain-Trustframework-Patient)
 </t>
   </si>
   <si>
@@ -668,7 +668,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
